--- a/temp/1-EC data-Golestan province_2004-2016.xlsx
+++ b/temp/1-EC data-Golestan province_2004-2016.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\1-AAHeyat Elmi\Bursary\1-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Rcan\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232838D5-2E09-41EC-A565-ED4E033E60B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{704D4CB5-1BDB-4722-9B5B-4EEFC1F22359}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$2625</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$2628</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Roshandel-10</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{98EE96BE-4E15-48A1-9409-7B3B4C8FD389}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{96D9D698-4310-492F-95BE-99B90981AA7D}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{47787900-D1D1-400D-BF02-1F8557FB75CF}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,17 +509,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FD16BF-B448-4263-9893-E9A140EF0E26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2625"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2604" workbookViewId="0">
+      <selection activeCell="N2618" sqref="N2618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
@@ -84465,7 +84465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2625">
         <v>10002624</v>
       </c>
@@ -84493,8 +84493,12 @@
       <c r="I2625">
         <v>3</v>
       </c>
+      <c r="J2625">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R2628"/>
   <sortState ref="A2:J2626">
     <sortCondition ref="A1"/>
   </sortState>

--- a/temp/1-EC data-Golestan province_2004-2016.xlsx
+++ b/temp/1-EC data-Golestan province_2004-2016.xlsx
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2604" workbookViewId="0">
-      <selection activeCell="N2618" sqref="N2618"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -84498,7 +84498,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R2628"/>
   <sortState ref="A2:J2626">
     <sortCondition ref="A1"/>
   </sortState>
